--- a/stages/test_files/CLOEE2_Export_FE_2018_TEST2.xlsx
+++ b/stages/test_files/CLOEE2_Export_FE_2018_TEST2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" state="visible" r:id="rId2"/>
@@ -286,7 +286,7 @@
     <t xml:space="preserve">CPC</t>
   </si>
   <si>
-    <t xml:space="preserve">1ASSCFEa</t>
+    <t xml:space="preserve">2ASSCFEa</t>
   </si>
   <si>
     <t xml:space="preserve">Centre Cantonal de peinture</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">Monsieur</t>
   </si>
   <si>
-    <t xml:space="preserve">1EDS18-20</t>
+    <t xml:space="preserve">2EDS18-20</t>
   </si>
   <si>
     <t xml:space="preserve">102</t>
@@ -536,40 +536,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE5" activeCellId="0" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.8979591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="35" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="40.5"/>
-    <col collapsed="false" hidden="false" max="38" min="37" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="47" min="44" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="50" min="49" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="52" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="45.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="39.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="31.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="19" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="40.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="38.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="40" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="44" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="49" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="52" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,7 +1429,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
